--- a/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DA8CC1-7B3E-C64C-8171-5C0131A81450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFCC8B-57C5-7C4A-B921-DE670BCBE56E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="460" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="7460" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultBreadthAlltranspair" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -926,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection sqref="A1:J883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAFCC8B-57C5-7C4A-B921-DE670BCBE56E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228ED97F-8807-5043-BB1D-FE0D3C78728A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultBreadthAlltranspair" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 

--- a/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultBreadthAlltranspair.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228ED97F-8807-5043-BB1D-FE0D3C78728A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BDAFB7-EB03-D64E-ACCC-2C41B3C7BF04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="600" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
